--- a/src/test/resources/Signora.xlsx
+++ b/src/test/resources/Signora.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCredTest" sheetId="1" r:id="rId1"/>
     <sheet name="ValidTest1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t>Minimum length of this field must be equal or greater than 8 symbols. Leading and trailing spaces will be ignored.</t>
+  </si>
+  <si>
+    <t>expectedValue</t>
+  </si>
+  <si>
+    <t>This is a required field.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -475,4 +482,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>